--- a/test_data/test_data_5.xlsx
+++ b/test_data/test_data_5.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28615"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\qlrqo\Documents\전공 과목\전프 (CS408)\ChatSummarizer\test_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/Desktop/2018KAIST_FALL/CS408_전프/src/test_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6970"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="23460" windowHeight="14560" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,9 +19,15 @@
     <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
     <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -1262,7 +1268,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1319,7 +1325,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="기본" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1599,16 +1605,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="B62" sqref="B62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="63.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>396</v>
       </c>
@@ -1619,18 +1625,18 @@
         <v>398</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1641,29 +1647,29 @@
         <v>377</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1671,15 +1677,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1687,7 +1693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1695,7 +1701,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1703,7 +1709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1711,7 +1717,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -1719,7 +1725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -1727,7 +1733,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -1735,7 +1741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -1743,7 +1749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -1751,7 +1757,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -1759,55 +1765,55 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -1815,15 +1821,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -1831,15 +1837,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>25</v>
       </c>
       <c r="B27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -1847,23 +1853,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>27</v>
       </c>
       <c r="B29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>28</v>
       </c>
       <c r="B30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -1871,7 +1877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -1879,47 +1885,47 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>31</v>
       </c>
       <c r="B33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>32</v>
       </c>
       <c r="B34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>33</v>
       </c>
       <c r="B35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>34</v>
       </c>
       <c r="B36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>35</v>
       </c>
       <c r="B37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>36</v>
       </c>
@@ -1927,7 +1933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>37</v>
       </c>
@@ -1935,7 +1941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>38</v>
       </c>
@@ -1943,23 +1949,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>39</v>
       </c>
       <c r="B41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>40</v>
       </c>
       <c r="B42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>41</v>
       </c>
@@ -1967,15 +1973,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>42</v>
       </c>
       <c r="B44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>43</v>
       </c>
@@ -1983,7 +1989,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>44</v>
       </c>
@@ -1991,15 +1997,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>45</v>
       </c>
       <c r="B47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>46</v>
       </c>
@@ -2007,7 +2013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>47</v>
       </c>
@@ -2015,7 +2021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>48</v>
       </c>
@@ -2023,7 +2029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>49</v>
       </c>
@@ -2031,7 +2037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>50</v>
       </c>
@@ -2039,7 +2045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>51</v>
       </c>
@@ -2047,7 +2053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>52</v>
       </c>
@@ -2055,7 +2061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>53</v>
       </c>
@@ -2063,7 +2069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>54</v>
       </c>
@@ -2071,7 +2077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>55</v>
       </c>
@@ -2079,7 +2085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>56</v>
       </c>
@@ -2087,7 +2093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>57</v>
       </c>
@@ -2095,7 +2101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>58</v>
       </c>
@@ -2103,7 +2109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>59</v>
       </c>
@@ -2111,7 +2117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>60</v>
       </c>
@@ -2130,16 +2136,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C75"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="B79" sqref="B79"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="91.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>396</v>
       </c>
@@ -2150,7 +2156,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>61</v>
       </c>
@@ -2161,29 +2167,29 @@
         <v>380</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>62</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>63</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>64</v>
       </c>
@@ -2194,7 +2200,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>65</v>
       </c>
@@ -2202,7 +2208,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>66</v>
       </c>
@@ -2210,7 +2216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>67</v>
       </c>
@@ -2218,7 +2224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>68</v>
       </c>
@@ -2226,7 +2232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>69</v>
       </c>
@@ -2234,7 +2240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>70</v>
       </c>
@@ -2242,7 +2248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>71</v>
       </c>
@@ -2250,7 +2256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>72</v>
       </c>
@@ -2258,7 +2264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>73</v>
       </c>
@@ -2266,7 +2272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>74</v>
       </c>
@@ -2274,7 +2280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>75</v>
       </c>
@@ -2282,7 +2288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>76</v>
       </c>
@@ -2290,7 +2296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>77</v>
       </c>
@@ -2298,23 +2304,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>78</v>
       </c>
       <c r="B19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>79</v>
       </c>
       <c r="B20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>80</v>
       </c>
@@ -2322,31 +2328,31 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>81</v>
       </c>
       <c r="B22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>82</v>
       </c>
       <c r="B23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>83</v>
       </c>
       <c r="B24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>84</v>
       </c>
@@ -2354,7 +2360,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>85</v>
       </c>
@@ -2362,7 +2368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>86</v>
       </c>
@@ -2370,7 +2376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>87</v>
       </c>
@@ -2378,7 +2384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>88</v>
       </c>
@@ -2386,7 +2392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>89</v>
       </c>
@@ -2394,7 +2400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>90</v>
       </c>
@@ -2402,7 +2408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>91</v>
       </c>
@@ -2410,7 +2416,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>92</v>
       </c>
@@ -2418,7 +2424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>93</v>
       </c>
@@ -2426,7 +2432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>94</v>
       </c>
@@ -2434,7 +2440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>95</v>
       </c>
@@ -2442,7 +2448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>96</v>
       </c>
@@ -2450,7 +2456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>97</v>
       </c>
@@ -2458,7 +2464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>98</v>
       </c>
@@ -2466,7 +2472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>99</v>
       </c>
@@ -2474,7 +2480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>100</v>
       </c>
@@ -2482,7 +2488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>101</v>
       </c>
@@ -2490,7 +2496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>102</v>
       </c>
@@ -2498,15 +2504,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>103</v>
       </c>
       <c r="B44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>104</v>
       </c>
@@ -2514,7 +2520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>105</v>
       </c>
@@ -2522,7 +2528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>106</v>
       </c>
@@ -2530,7 +2536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>107</v>
       </c>
@@ -2538,15 +2544,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>108</v>
       </c>
       <c r="B49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>109</v>
       </c>
@@ -2554,7 +2560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>110</v>
       </c>
@@ -2562,15 +2568,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>111</v>
       </c>
       <c r="B52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>112</v>
       </c>
@@ -2578,7 +2584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>113</v>
       </c>
@@ -2586,7 +2592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>114</v>
       </c>
@@ -2594,15 +2600,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>115</v>
       </c>
       <c r="B56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>116</v>
       </c>
@@ -2610,7 +2616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>117</v>
       </c>
@@ -2618,7 +2624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>118</v>
       </c>
@@ -2626,7 +2632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>119</v>
       </c>
@@ -2634,23 +2640,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>120</v>
       </c>
       <c r="B61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>121</v>
       </c>
       <c r="B62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>122</v>
       </c>
@@ -2658,7 +2664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>123</v>
       </c>
@@ -2666,7 +2672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>124</v>
       </c>
@@ -2674,7 +2680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>125</v>
       </c>
@@ -2682,7 +2688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>126</v>
       </c>
@@ -2690,7 +2696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>127</v>
       </c>
@@ -2698,7 +2704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>128</v>
       </c>
@@ -2706,7 +2712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>129</v>
       </c>
@@ -2714,7 +2720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>130</v>
       </c>
@@ -2722,7 +2728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>131</v>
       </c>
@@ -2730,7 +2736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>132</v>
       </c>
@@ -2738,7 +2744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>133</v>
       </c>
@@ -2746,7 +2752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>134</v>
       </c>
@@ -2765,16 +2771,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C142"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView topLeftCell="A119" workbookViewId="0">
+      <selection activeCell="B146" sqref="B146"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="83.58203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="83.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>396</v>
       </c>
@@ -2785,7 +2791,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>135</v>
       </c>
@@ -2796,7 +2802,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>136</v>
       </c>
@@ -2807,45 +2813,45 @@
         <v>384</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>137</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>138</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>139</v>
       </c>
       <c r="B6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>140</v>
       </c>
       <c r="B7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>141</v>
       </c>
@@ -2853,7 +2859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>142</v>
       </c>
@@ -2861,7 +2867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>143</v>
       </c>
@@ -2869,7 +2875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>144</v>
       </c>
@@ -2877,7 +2883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>145</v>
       </c>
@@ -2885,7 +2891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>146</v>
       </c>
@@ -2893,7 +2899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>147</v>
       </c>
@@ -2901,7 +2907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>148</v>
       </c>
@@ -2909,15 +2915,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>149</v>
       </c>
       <c r="B16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>150</v>
       </c>
@@ -2925,15 +2931,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>151</v>
       </c>
       <c r="B18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>152</v>
       </c>
@@ -2941,23 +2947,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>153</v>
       </c>
       <c r="B20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>154</v>
       </c>
       <c r="B21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>155</v>
       </c>
@@ -2965,15 +2971,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>156</v>
       </c>
       <c r="B23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>157</v>
       </c>
@@ -2981,7 +2987,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>158</v>
       </c>
@@ -2989,7 +2995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>159</v>
       </c>
@@ -2997,7 +3003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>160</v>
       </c>
@@ -3005,7 +3011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>161</v>
       </c>
@@ -3013,7 +3019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>162</v>
       </c>
@@ -3021,23 +3027,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>163</v>
       </c>
       <c r="B30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>164</v>
       </c>
       <c r="B31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>165</v>
       </c>
@@ -3045,7 +3051,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>166</v>
       </c>
@@ -3053,7 +3059,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>167</v>
       </c>
@@ -3061,7 +3067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>168</v>
       </c>
@@ -3069,39 +3075,39 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>169</v>
       </c>
       <c r="B36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>170</v>
       </c>
       <c r="B37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>171</v>
       </c>
       <c r="B38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>172</v>
       </c>
       <c r="B39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>173</v>
       </c>
@@ -3109,7 +3115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>174</v>
       </c>
@@ -3117,7 +3123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>175</v>
       </c>
@@ -3125,7 +3131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>176</v>
       </c>
@@ -3133,7 +3139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>177</v>
       </c>
@@ -3141,7 +3147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>178</v>
       </c>
@@ -3149,7 +3155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>179</v>
       </c>
@@ -3157,7 +3163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>180</v>
       </c>
@@ -3165,7 +3171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>181</v>
       </c>
@@ -3173,23 +3179,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>182</v>
       </c>
       <c r="B49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>183</v>
       </c>
       <c r="B50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>184</v>
       </c>
@@ -3197,7 +3203,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>185</v>
       </c>
@@ -3205,15 +3211,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>186</v>
       </c>
       <c r="B53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>187</v>
       </c>
@@ -3221,31 +3227,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>188</v>
       </c>
       <c r="B55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>189</v>
       </c>
       <c r="B56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>190</v>
       </c>
       <c r="B57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>191</v>
       </c>
@@ -3253,7 +3259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>192</v>
       </c>
@@ -3261,7 +3267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>193</v>
       </c>
@@ -3269,7 +3275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>194</v>
       </c>
@@ -3277,7 +3283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>195</v>
       </c>
@@ -3285,7 +3291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>196</v>
       </c>
@@ -3293,7 +3299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>197</v>
       </c>
@@ -3301,7 +3307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>198</v>
       </c>
@@ -3309,7 +3315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>199</v>
       </c>
@@ -3317,7 +3323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>200</v>
       </c>
@@ -3325,7 +3331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>201</v>
       </c>
@@ -3333,7 +3339,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>202</v>
       </c>
@@ -3341,7 +3347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>203</v>
       </c>
@@ -3349,7 +3355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>204</v>
       </c>
@@ -3357,7 +3363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>205</v>
       </c>
@@ -3365,7 +3371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>206</v>
       </c>
@@ -3373,7 +3379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>207</v>
       </c>
@@ -3381,7 +3387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>208</v>
       </c>
@@ -3389,7 +3395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>209</v>
       </c>
@@ -3397,7 +3403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>210</v>
       </c>
@@ -3405,7 +3411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>211</v>
       </c>
@@ -3413,7 +3419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>212</v>
       </c>
@@ -3421,7 +3427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>213</v>
       </c>
@@ -3429,7 +3435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>214</v>
       </c>
@@ -3437,7 +3443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>215</v>
       </c>
@@ -3445,7 +3451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>213</v>
       </c>
@@ -3453,7 +3459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>216</v>
       </c>
@@ -3461,7 +3467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>217</v>
       </c>
@@ -3469,7 +3475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>218</v>
       </c>
@@ -3477,7 +3483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>219</v>
       </c>
@@ -3485,7 +3491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>220</v>
       </c>
@@ -3493,7 +3499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>221</v>
       </c>
@@ -3501,7 +3507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>222</v>
       </c>
@@ -3509,7 +3515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>223</v>
       </c>
@@ -3517,7 +3523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>223</v>
       </c>
@@ -3525,7 +3531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>223</v>
       </c>
@@ -3533,7 +3539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>224</v>
       </c>
@@ -3541,7 +3547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>225</v>
       </c>
@@ -3549,7 +3555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>226</v>
       </c>
@@ -3557,7 +3563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>227</v>
       </c>
@@ -3565,7 +3571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>228</v>
       </c>
@@ -3573,7 +3579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>229</v>
       </c>
@@ -3581,7 +3587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>230</v>
       </c>
@@ -3589,7 +3595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>231</v>
       </c>
@@ -3597,7 +3603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>232</v>
       </c>
@@ -3605,7 +3611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>233</v>
       </c>
@@ -3613,7 +3619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>234</v>
       </c>
@@ -3621,7 +3627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>235</v>
       </c>
@@ -3629,23 +3635,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>236</v>
       </c>
       <c r="B106">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>237</v>
       </c>
       <c r="B107">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>238</v>
       </c>
@@ -3653,7 +3659,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>239</v>
       </c>
@@ -3661,31 +3667,31 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>240</v>
       </c>
       <c r="B110">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>241</v>
       </c>
       <c r="B111">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>242</v>
       </c>
       <c r="B112">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>243</v>
       </c>
@@ -3693,7 +3699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>244</v>
       </c>
@@ -3701,7 +3707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>245</v>
       </c>
@@ -3709,7 +3715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>246</v>
       </c>
@@ -3717,7 +3723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>247</v>
       </c>
@@ -3725,7 +3731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>248</v>
       </c>
@@ -3733,7 +3739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>249</v>
       </c>
@@ -3741,7 +3747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>250</v>
       </c>
@@ -3749,7 +3755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>251</v>
       </c>
@@ -3757,7 +3763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>252</v>
       </c>
@@ -3765,7 +3771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>253</v>
       </c>
@@ -3773,7 +3779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>254</v>
       </c>
@@ -3781,7 +3787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>255</v>
       </c>
@@ -3789,7 +3795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>256</v>
       </c>
@@ -3797,7 +3803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>257</v>
       </c>
@@ -3805,7 +3811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>258</v>
       </c>
@@ -3813,7 +3819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>259</v>
       </c>
@@ -3821,7 +3827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>260</v>
       </c>
@@ -3829,7 +3835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>261</v>
       </c>
@@ -3837,7 +3843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>262</v>
       </c>
@@ -3845,7 +3851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>263</v>
       </c>
@@ -3853,7 +3859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>264</v>
       </c>
@@ -3861,7 +3867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>265</v>
       </c>
@@ -3869,23 +3875,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>266</v>
       </c>
       <c r="B136">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>267</v>
       </c>
       <c r="B137">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>268</v>
       </c>
@@ -3893,7 +3899,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>269</v>
       </c>
@@ -3901,7 +3907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>270</v>
       </c>
@@ -3909,7 +3915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>271</v>
       </c>
@@ -3917,7 +3923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>272</v>
       </c>
@@ -3935,16 +3941,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B1" sqref="A1:XFD1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="143.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>396</v>
       </c>
@@ -3955,7 +3961,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>273</v>
       </c>
@@ -3966,18 +3972,18 @@
         <v>387</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>274</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>275</v>
       </c>
@@ -3988,7 +3994,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>276</v>
       </c>
@@ -3999,7 +4005,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>277</v>
       </c>
@@ -4007,7 +4013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>278</v>
       </c>
@@ -4015,7 +4021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>279</v>
       </c>
@@ -4023,7 +4029,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>280</v>
       </c>
@@ -4031,7 +4037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>281</v>
       </c>
@@ -4039,7 +4045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>282</v>
       </c>
@@ -4047,7 +4053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>283</v>
       </c>
@@ -4055,7 +4061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>284</v>
       </c>
@@ -4063,7 +4069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>285</v>
       </c>
@@ -4071,7 +4077,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>286</v>
       </c>
@@ -4079,7 +4085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>287</v>
       </c>
@@ -4087,7 +4093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>288</v>
       </c>
@@ -4095,7 +4101,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>289</v>
       </c>
@@ -4103,7 +4109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>290</v>
       </c>
@@ -4111,7 +4117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>291</v>
       </c>
@@ -4129,16 +4135,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="A1:XFD1"/>
+    <sheetView topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="B57" sqref="B57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="105.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>396</v>
       </c>
@@ -4149,7 +4155,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>292</v>
       </c>
@@ -4160,18 +4166,18 @@
         <v>391</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>293</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>294</v>
       </c>
@@ -4182,7 +4188,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>295</v>
       </c>
@@ -4193,7 +4199,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>296</v>
       </c>
@@ -4201,7 +4207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>297</v>
       </c>
@@ -4209,7 +4215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>298</v>
       </c>
@@ -4217,7 +4223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>299</v>
       </c>
@@ -4225,7 +4231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>300</v>
       </c>
@@ -4233,15 +4239,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>301</v>
       </c>
       <c r="B11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>302</v>
       </c>
@@ -4249,7 +4255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>303</v>
       </c>
@@ -4257,7 +4263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>304</v>
       </c>
@@ -4265,7 +4271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>305</v>
       </c>
@@ -4273,7 +4279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>306</v>
       </c>
@@ -4281,7 +4287,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>307</v>
       </c>
@@ -4289,7 +4295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>308</v>
       </c>
@@ -4297,7 +4303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>309</v>
       </c>
@@ -4305,7 +4311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>310</v>
       </c>
@@ -4313,7 +4319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>311</v>
       </c>
@@ -4321,7 +4327,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>312</v>
       </c>
@@ -4329,7 +4335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>313</v>
       </c>
@@ -4337,7 +4343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>314</v>
       </c>
@@ -4345,15 +4351,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>315</v>
       </c>
       <c r="B25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>316</v>
       </c>
@@ -4361,7 +4367,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>317</v>
       </c>
@@ -4369,7 +4375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>318</v>
       </c>
@@ -4377,7 +4383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>319</v>
       </c>
@@ -4385,7 +4391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>320</v>
       </c>
@@ -4393,7 +4399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>321</v>
       </c>
@@ -4401,7 +4407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>322</v>
       </c>
@@ -4409,7 +4415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>323</v>
       </c>
@@ -4417,7 +4423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>324</v>
       </c>
@@ -4425,7 +4431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>325</v>
       </c>
@@ -4433,7 +4439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>326</v>
       </c>
@@ -4441,7 +4447,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>327</v>
       </c>
@@ -4449,7 +4455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>328</v>
       </c>
@@ -4457,7 +4463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>329</v>
       </c>
@@ -4465,7 +4471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>330</v>
       </c>
@@ -4473,7 +4479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>331</v>
       </c>
@@ -4481,7 +4487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>332</v>
       </c>
@@ -4489,7 +4495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>333</v>
       </c>
@@ -4497,7 +4503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>334</v>
       </c>
@@ -4505,7 +4511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>335</v>
       </c>
@@ -4513,7 +4519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>336</v>
       </c>
@@ -4521,7 +4527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>337</v>
       </c>
@@ -4529,7 +4535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>338</v>
       </c>
@@ -4537,7 +4543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>339</v>
       </c>
@@ -4545,7 +4551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>340</v>
       </c>
@@ -4553,7 +4559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>341</v>
       </c>
@@ -4561,7 +4567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>342</v>
       </c>
@@ -4569,7 +4575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>343</v>
       </c>
@@ -4588,17 +4594,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="63.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="44.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>344</v>
       </c>
@@ -4609,7 +4615,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>345</v>
       </c>
@@ -4623,7 +4629,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>346</v>
       </c>
@@ -4634,7 +4640,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>347</v>
       </c>
@@ -4645,7 +4651,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>348</v>
       </c>
@@ -4653,7 +4659,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>349</v>
       </c>
@@ -4661,7 +4667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>350</v>
       </c>
@@ -4669,7 +4675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="25.5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:4" ht="23" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>351</v>
       </c>
@@ -4680,7 +4686,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>352</v>
       </c>
@@ -4691,7 +4697,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>353</v>
       </c>
@@ -4702,7 +4708,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>354</v>
       </c>
@@ -4713,7 +4719,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>355</v>
       </c>
@@ -4721,7 +4727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>356</v>
       </c>
@@ -4729,7 +4735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>357</v>
       </c>
@@ -4737,7 +4743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>358</v>
       </c>
@@ -4745,7 +4751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>359</v>
       </c>
@@ -4753,7 +4759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>360</v>
       </c>
@@ -4761,7 +4767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>361</v>
       </c>
@@ -4769,7 +4775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>362</v>
       </c>
@@ -4777,7 +4783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>363</v>
       </c>
@@ -4785,7 +4791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>364</v>
       </c>
@@ -4793,7 +4799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>365</v>
       </c>
@@ -4801,7 +4807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>366</v>
       </c>
